--- a/merge_same_numbers.xlsx
+++ b/merge_same_numbers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:0</t>
+          <t>37:0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xe-0/0/14</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:0</t>
+          <t>39:0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xe-0/0/16</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xe-0/0/18</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>xe-0/0/20</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xe-0/0/22</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
     </row>
@@ -616,355 +616,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>xe-0/0/24</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>26:0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>xe-0/0/26</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>28:0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>xe-0/0/28</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30:0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>xe-0/0/30</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>32:0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>xe-0/0/32</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>34:0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>xe-0/0/34</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>37:0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>xe-0/0/37</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>39:0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>xe-0/0/39</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>41:0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>xe-0/0/41</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>43:0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>xe-0/0/43</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>45:0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>xe-0/0/45</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>47:0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
         <is>
           <t>xe-0/0/47</t>
         </is>

--- a/merge_same_numbers.xlsx
+++ b/merge_same_numbers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-PCLAR-H-03-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>37:0</t>
+          <t>11:0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/1</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-PCLAR-H-03-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>39:0</t>
+          <t>13:0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/11</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-PCLAR-H-03-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>15:0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/13</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-PCLAR-H-03-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>17:0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/15</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-PCLAR-H-03-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>19:0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/17</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,567 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-PCLAR-H-03-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>xe-0/0/19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>xe-0/0/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23:0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>xe-0/0/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>25:0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>xe-0/0/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>27:0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>xe-0/0/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>29:0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>xe-0/0/29</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>30:0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>xe-0/0/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>32:0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>xe-0/0/32</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>34:0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>xe-0/0/34</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>36:0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>xe-0/0/36</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>38:0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>xe-0/0/38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>41:0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>xe-0/0/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>43:0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>xe-0/0/41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>45:0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>xe-0/0/43</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>47:0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>xe-0/0/45</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4:0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>xe-0/0/47</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5:0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>xe-0/0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>7:0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>xe-0/0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9:0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BOGO-PCLAR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>xe-0/0/9</t>
         </is>
       </c>
     </row>

--- a/merge_same_numbers.xlsx
+++ b/merge_same_numbers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:0</t>
+          <t>37:0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xe-0/0/1</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:0</t>
+          <t>39:0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xe-0/0/11</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xe-0/0/13</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>xe-0/0/15</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xe-0/0/17</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
     </row>
@@ -616,567 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>xe-0/0/19</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>xe-0/0/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>23:0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>xe-0/0/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>25:0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>xe-0/0/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>27:0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>xe-0/0/27</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>29:0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>xe-0/0/29</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>30:0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>xe-0/0/30</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>32:0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>xe-0/0/32</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>34:0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>xe-0/0/34</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>36:0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>xe-0/0/36</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>38:0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>xe-0/0/38</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>41:0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>xe-0/0/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>43:0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>xe-0/0/41</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>45:0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>xe-0/0/43</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>47:0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>xe-0/0/45</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4:0</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>xe-0/0/47</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>5:0</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>xe-0/0/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>7:0</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>xe-0/0/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-03-COS</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>9:0</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BOGO-PCLAR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>xe-0/0/9</t>
         </is>
       </c>
     </row>

--- a/merge_same_numbers.xlsx
+++ b/merge_same_numbers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>37:0</t>
+          <t>14:0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/14</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>39:0</t>
+          <t>16:0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/16</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>18:0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/18</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>20:0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/20</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>22:0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>MADRI-MADR-H-01-DAAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/22</t>
         </is>
       </c>
     </row>
@@ -616,25 +616,355 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>MADRI-MADR-H-03-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>24:0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>xe-0/0/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>26:0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>xe-0/0/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>28:0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>xe-0/0/28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30:0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>xe-0/0/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>32:0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>xe-0/0/32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>34:0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>xe-0/0/34</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37:0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>xe-0/0/37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>39:0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>xe-0/0/39</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>41:0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>xe-0/0/41</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>43:0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>xe-0/0/43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>45:0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>xe-0/0/45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-03-COS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>47:0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>xe-0/0/47</t>
         </is>
